--- a/xlsx/data.xlsx
+++ b/xlsx/data.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bosok\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vscode\basic\lecture\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A4D5EE-4ED8-411B-9E41-AE65855BE598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F378D2-30CA-470F-9145-684D29642119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="영화목록" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1072,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1181,4 +1186,71 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0CD5E-AAC3-426B-925B-A0ED30E86C8B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D098C33-DDBF-4EBF-B244-9D3B3CF4811C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FF5566-21A6-4595-9EAD-089C110DDA68}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351A6DDF-D13D-4227-BBEC-B9179C4723AB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6262CB7-7E1C-42E5-A690-7DEE506AB466}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>